--- a/data/metadata/mapping-catastro-diciembre-de----cast-ano-as-character--30---.xlsx
+++ b/data/metadata/mapping-catastro-diciembre-de----cast-ano-as-character--30---.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>catastro-diciembre-de-2014--------------------------</t>
+    <t>Catastro (diciembre de 2014                          )</t>
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/catastro-diciembre-de----cast-ano-as-character--30---/catastro-diciembre-de-2014--------------------------</t>
